--- a/INTLINE/data/576/DOS/M212931 - Consumer Price Index Annual.xlsx
+++ b/INTLINE/data/576/DOS/M212931 - Consumer Price Index Annual.xlsx
@@ -28,7 +28,7 @@
     <t>Table Title: Consumer Price Index (CPI), 2019 As Base Year, Annual</t>
   </si>
   <si>
-    <t>Data last updated: 23/02/2022</t>
+    <t>Data last updated: 24/05/2022</t>
   </si>
   <si>
     <t>Check next release date</t>
@@ -688,7 +688,7 @@
     <t>All Items -&gt; Transport -&gt; Other Transport Services -&gt; Air Fares (Index):</t>
   </si>
   <si>
-    <t>These services were either fully or partially unavailable in Apr 20 - Dec 21 due to international and safe-distancing measures to contain the COVID-19 pandemic.  Price changes of unavailable services were imputed, in line with international guidelines.  When the services resume and prices become available, the information is incorporated in the compilation of CPI.  For example, with the easing of border restrictions and establishment of Vaccinated Travel Lanes, prices of available holiday-related services were incorporated.</t>
+    <t>These services were either fully or partially unavailable in Apr 20 -�Dec 21�due to international and safe-distancing measures to contain the COVID-19 pandemic.  Price changes of unavailable services were imputed, in line with international guidelines.  As the services resumed progressively, actual prices were being incorporated into the CPI.</t>
   </si>
   <si>
     <t>All Items -&gt; Recreation &amp; Culture -&gt; Recreational &amp; Cultural Services -&gt; Sport Services &amp; Other Fees (Index):</t>
@@ -697,7 +697,7 @@
     <t>All Items -&gt; Recreation &amp; Culture -&gt; Recreational &amp; Cultural Services -&gt; Cinema Tickets (Index):</t>
   </si>
   <si>
-    <t>These services were either fully or partially unavailable in Apr - Jul 20 due to international and safe-distancing measures to contain the COVID-19 pandemic.  Price changes of unavailable services were imputed, in line with international guidelines.  When the services resume and prices become available, the information is incorporated in the compilation of CPI.</t>
+    <t>These services were either fully or partially unavailable in Apr - Jul 20 due to international and safe-distancing measures to contain the COVID-19 pandemic.  Price changes of unavailable services were imputed, in line with international guidelines.  As the services resumed progressively, actual prices were being incorporated into the CPI.</t>
   </si>
   <si>
     <t>All Items -&gt; Recreation &amp; Culture -&gt; Recreational &amp; Cultural Services -&gt; Charges To Places Of Interest (Index):</t>
@@ -715,7 +715,7 @@
     <t>All Items -&gt; Miscellaneous Goods &amp; Services -&gt; Personal Care -&gt; Personal Grooming Services (Index):</t>
   </si>
   <si>
-    <t>These services were either fully or partially unavailable in Apr - Jun 20 due to international and safe-distancing measures to contain the COVID-19 pandemic.  Price changes of unavailable services were imputed, in line with international guidelines.  When the services resume and prices become available, the information is incorporated in the compilation of CPI.</t>
+    <t>These services were either fully or partially unavailable in Apr - Jun 20 due to international and safe-distancing measures to contain the COVID-19 pandemic. Price changes of unavailable services were imputed, in line with international guidelines.  As the services resumed progressively, actual prices were being incorporated into the CPI.</t>
   </si>
   <si>
     <t>All Items Less Imputed Rentals On Owner-Occupied Accommodation (Index):</t>
@@ -769,7 +769,7 @@
     <t>Generated by: SingStat Table Builder</t>
   </si>
   <si>
-    <t>Date generated: 22/04/2022</t>
+    <t>Date generated: 14/06/2022</t>
   </si>
   <si>
     <t>Contact: info@singstat.gov.sg</t>

--- a/INTLINE/data/576/DOS/M212931 - Consumer Price Index Annual.xlsx
+++ b/INTLINE/data/576/DOS/M212931 - Consumer Price Index Annual.xlsx
@@ -769,7 +769,7 @@
     <t>Generated by: SingStat Table Builder</t>
   </si>
   <si>
-    <t>Date generated: 14/06/2022</t>
+    <t>Date generated: 27/06/2022</t>
   </si>
   <si>
     <t>Contact: info@singstat.gov.sg</t>
